--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value598.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value598.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.052626592843866</v>
+        <v>1.066212177276611</v>
       </c>
       <c r="B1">
-        <v>1.147780127960152</v>
+        <v>1.576866388320923</v>
       </c>
       <c r="C1">
-        <v>1.103717012444159</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.17729482771502</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.410406782600572</v>
+        <v>1.164492845535278</v>
       </c>
     </row>
   </sheetData>
